--- a/biology/Virologie/Pierre_Sonigo/Pierre_Sonigo.xlsx
+++ b/biology/Virologie/Pierre_Sonigo/Pierre_Sonigo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pierre Germain Sonigo, né le 29 décembre 1958 à Alger, est un biologiste français, spécialiste de biologie moléculaire et de virologie. Il est docteur en médecine et en biologie.
 </t>
@@ -511,11 +523,13 @@
           <t>Aperçu biographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Directeur de recherche à l'Inserm, il a travaillé à l'Institut Pasteur et dirigé le laboratoire "Génétique des virus" à l'Institut Cochin. Il a été directeur de la recherche et du développement chez Bio-Rad France et est actuellement directeur recherche et développement du groupe Sebia.
 En 1985, il a participé au séquençage du virus de l'immunodéficience humaine.
-Il a été nommé chevalier de la Légion d'honneur le 31 décembre 2008[1] et décoré le 26 avril 2010  par le professeur Luc Montagnier.
+Il a été nommé chevalier de la Légion d'honneur le 31 décembre 2008 et décoré le 26 avril 2010  par le professeur Luc Montagnier.
 Au début des années 1980, il a appartenu au groupe de rock français Les Avions.
 </t>
         </is>
@@ -545,7 +559,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Il a publié de nombreux articles dans La Recherche, Science &amp; Vie hors série...
 Il est auteur ou coauteur de :
